--- a/WebContent/DATA/form_upload_doc.xlsx
+++ b/WebContent/DATA/form_upload_doc.xlsx
@@ -2,21 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김나래\workspace-project\dashboard-project\WebContent\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\zzharton\WebContent\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
-    <sheet name="데이터 하나" sheetId="3" r:id="rId1"/>
-    <sheet name="데이터 둘" sheetId="1" r:id="rId2"/>
-    <sheet name="정의" sheetId="2" r:id="rId3"/>
+    <sheet name="문서 등록" sheetId="3" r:id="rId1"/>
+    <sheet name="정의" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,55 +27,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>건수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA2</t>
+    <t>본문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수집코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자(출처)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLLECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 키 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRITER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 문서입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,15 +104,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -179,8 +169,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,104 +452,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -569,132 +627,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
